--- a/docs/CyclicExecutiveDesign.xlsx
+++ b/docs/CyclicExecutiveDesign.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be66e819881b34e6/Documents/Fraser/Heriot Watt/Year 4/Embedded Software/Assignment2/B31DGAssig2/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="341" documentId="8_{28998746-45E2-4743-931C-C02CCD429726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9246500B-F5F6-43FB-91C8-A5476401CF6A}"/>
+  <xr:revisionPtr revIDLastSave="364" documentId="8_{28998746-45E2-4743-931C-C02CCD429726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31028547-3543-4952-8CB8-EE042816EBBE}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5760" yWindow="1044" windowWidth="17280" windowHeight="9960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Pi:</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>T5</t>
+  </si>
+  <si>
+    <t>Monitor Button</t>
   </si>
 </sst>
 </file>
@@ -536,18 +539,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="11.5546875"/>
+    <col min="1" max="7" width="11.5546875"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+    <col min="9" max="1025" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>11</v>
       </c>
@@ -566,8 +571,11 @@
       <c r="G1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -587,7 +595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -606,8 +614,11 @@
       <c r="G3">
         <v>0.502</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -629,14 +640,17 @@
       <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -655,16 +669,19 @@
       <c r="G6" s="5">
         <v>1</v>
       </c>
-      <c r="H6">
-        <f>C6*$C$3+D6*$D$3+E6*$E$3+F6*$F$3+G6*$G$3</f>
-        <v>1.462</v>
+      <c r="H6" s="6">
+        <v>1</v>
       </c>
       <c r="I6">
-        <f>2-H6</f>
-        <v>0.53800000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <f>C6*$C$3+D6*$D$3+E6*$E$3+F6*$F$3+G6*$G$3+H6*$H$3</f>
+        <v>1.964</v>
+      </c>
+      <c r="J6">
+        <f>2-I6</f>
+        <v>3.6000000000000032E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -675,16 +692,16 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="H7">
-        <f t="shared" ref="H7:H36" si="1">C7*$C$3+D7*$D$3+E7*$E$3+F7*$F$3+G7*$G$3</f>
+      <c r="I7">
+        <f t="shared" ref="I7:I35" si="1">C7*$C$3+D7*$D$3+E7*$E$3+F7*$F$3+G7*$G$3+H7*$H$3</f>
         <v>1.5009999999999999</v>
       </c>
-      <c r="I7">
-        <f t="shared" ref="I7:I36" si="2">2-H7</f>
+      <c r="J7">
+        <f t="shared" ref="J7:J36" si="2">2-I7</f>
         <v>0.49900000000000011</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -698,16 +715,16 @@
       <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f t="shared" si="1"/>
         <v>0.96</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f t="shared" si="2"/>
         <v>1.04</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -722,16 +739,16 @@
         <v>1</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9">
+      <c r="I9">
         <f t="shared" si="1"/>
         <v>1.5549999999999999</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <f t="shared" si="2"/>
         <v>0.44500000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -745,16 +762,16 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <f t="shared" si="1"/>
         <v>1.107</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <f t="shared" si="2"/>
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -770,16 +787,16 @@
       <c r="G11" s="5">
         <v>1</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <f t="shared" si="1"/>
         <v>0.85699999999999998</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <f t="shared" si="2"/>
         <v>1.143</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -794,15 +811,18 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1.462</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>0.53800000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7</v>
       </c>
@@ -813,16 +833,16 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <f t="shared" si="1"/>
         <v>1.5009999999999999</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <f t="shared" si="2"/>
         <v>0.49900000000000011</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
@@ -839,16 +859,19 @@
       <c r="G14" s="5">
         <v>1</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
-        <v>1.462</v>
+      <c r="H14" s="6">
+        <v>1</v>
       </c>
       <c r="I14">
-        <f t="shared" si="2"/>
-        <v>0.53800000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1.964</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>3.6000000000000032E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
@@ -860,16 +883,16 @@
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
@@ -888,16 +911,16 @@
       <c r="G16" s="5">
         <v>1</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <f t="shared" si="1"/>
         <v>1.462</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <f t="shared" si="2"/>
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
@@ -911,16 +934,16 @@
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <f t="shared" si="1"/>
         <v>1.5549999999999999</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <f t="shared" si="2"/>
         <v>0.44500000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
@@ -935,15 +958,18 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <f t="shared" si="2"/>
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1.462</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>0.53800000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
@@ -955,16 +981,16 @@
         <v>1</v>
       </c>
       <c r="G19" s="5"/>
-      <c r="H19">
+      <c r="I19">
         <f t="shared" si="1"/>
         <v>1.5009999999999999</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <f t="shared" si="2"/>
         <v>0.49900000000000011</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
@@ -981,16 +1007,16 @@
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <f t="shared" si="1"/>
         <v>1.462</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <f t="shared" si="2"/>
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
@@ -1007,15 +1033,18 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <f t="shared" si="1"/>
-        <v>0.85699999999999998</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <f t="shared" si="2"/>
-        <v>1.143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1.359</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>0.64100000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
@@ -1027,16 +1056,16 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <f t="shared" si="1"/>
         <v>1.5009999999999999</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <f t="shared" si="2"/>
         <v>0.49900000000000011</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
@@ -1051,15 +1080,18 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <f t="shared" si="1"/>
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <f t="shared" si="2"/>
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1.462</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>0.53800000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
@@ -1075,16 +1107,16 @@
         <v>1</v>
       </c>
       <c r="G24" s="5"/>
-      <c r="H24">
+      <c r="I24">
         <f t="shared" si="1"/>
         <v>1.8049999999999999</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <f t="shared" si="2"/>
         <v>0.19500000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
@@ -1092,22 +1124,22 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25">
         <v>1</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <f t="shared" si="1"/>
         <v>0.85699999999999998</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <f t="shared" si="2"/>
         <v>1.143</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
@@ -1126,16 +1158,16 @@
       <c r="G26" s="5">
         <v>1</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <f t="shared" si="1"/>
         <v>1.462</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <f t="shared" si="2"/>
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
@@ -1149,16 +1181,16 @@
       <c r="E27">
         <v>1</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <f t="shared" si="1"/>
         <v>1.8559999999999999</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <f t="shared" si="2"/>
         <v>0.14400000000000013</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
@@ -1172,16 +1204,16 @@
       <c r="F28">
         <v>1</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <f t="shared" si="1"/>
         <v>1.8049999999999999</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <f t="shared" si="2"/>
         <v>0.19500000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>23</v>
       </c>
@@ -1195,16 +1227,16 @@
       <c r="G29" s="5">
         <v>1</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <f t="shared" si="1"/>
         <v>0.85699999999999998</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <f t="shared" si="2"/>
         <v>1.143</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24</v>
       </c>
@@ -1219,15 +1251,18 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <f t="shared" si="1"/>
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <f t="shared" si="2"/>
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1.462</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>0.53800000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>25</v>
       </c>
@@ -1240,16 +1275,16 @@
       <c r="G31" s="5">
         <v>1</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <f t="shared" si="1"/>
         <v>0.502</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <f t="shared" si="2"/>
         <v>1.498</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>26</v>
       </c>
@@ -1264,15 +1299,18 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <f t="shared" si="1"/>
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <f t="shared" si="2"/>
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1.462</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="2"/>
+        <v>0.53800000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>27</v>
       </c>
@@ -1284,16 +1322,16 @@
       <c r="E33">
         <v>1</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <f t="shared" si="1"/>
         <v>1.5009999999999999</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <f t="shared" si="2"/>
         <v>0.49900000000000011</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>28</v>
       </c>
@@ -1309,16 +1347,16 @@
         <v>1</v>
       </c>
       <c r="G34" s="5"/>
-      <c r="H34">
+      <c r="I34">
         <f t="shared" si="1"/>
         <v>1.5549999999999999</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <f t="shared" si="2"/>
         <v>0.44500000000000006</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>29</v>
       </c>
@@ -1336,37 +1374,25 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <f t="shared" si="1"/>
-        <v>1.462</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <f t="shared" si="2"/>
-        <v>0.53800000000000003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>30</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1.964</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="2"/>
+        <v>3.6000000000000032E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C38" s="3"/>
       <c r="D38" t="s">
         <v>10</v>
